--- a/денежная_масса.xlsx
+++ b/денежная_масса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Дата</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>ds1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -355,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +373,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +392,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>34700</v>
       </c>
@@ -406,8 +418,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>34731</v>
       </c>
@@ -426,8 +444,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>34759</v>
       </c>
@@ -446,8 +470,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>34790</v>
       </c>
@@ -466,8 +496,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>34820</v>
       </c>
@@ -486,8 +522,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34851</v>
       </c>
@@ -506,8 +548,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>34881</v>
       </c>
@@ -526,8 +574,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34912</v>
       </c>
@@ -546,8 +600,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34943</v>
       </c>
@@ -566,8 +626,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>34973</v>
       </c>
@@ -586,8 +652,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>35004</v>
       </c>
@@ -606,8 +678,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35034</v>
       </c>
@@ -626,8 +704,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35065</v>
       </c>
@@ -646,8 +730,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35096</v>
       </c>
@@ -666,8 +756,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35125</v>
       </c>
@@ -686,8 +782,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35156</v>
       </c>
@@ -706,8 +808,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35186</v>
       </c>
@@ -726,8 +834,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35217</v>
       </c>
@@ -746,8 +860,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35247</v>
       </c>
@@ -766,8 +886,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35278</v>
       </c>
@@ -786,8 +912,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35309</v>
       </c>
@@ -806,8 +938,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35339</v>
       </c>
@@ -826,8 +964,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35370</v>
       </c>
@@ -846,8 +990,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35400</v>
       </c>
@@ -866,8 +1016,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35431</v>
       </c>
@@ -886,8 +1042,14 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>35462</v>
       </c>
@@ -906,8 +1068,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35490</v>
       </c>
@@ -926,8 +1094,14 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35521</v>
       </c>
@@ -946,8 +1120,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35551</v>
       </c>
@@ -966,8 +1146,14 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35582</v>
       </c>
@@ -986,8 +1172,14 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35612</v>
       </c>
@@ -1006,8 +1198,14 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35643</v>
       </c>
@@ -1026,8 +1224,14 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35674</v>
       </c>
@@ -1046,8 +1250,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35704</v>
       </c>
@@ -1066,8 +1276,14 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35735</v>
       </c>
@@ -1086,8 +1302,14 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35765</v>
       </c>
@@ -1106,8 +1328,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35796</v>
       </c>
@@ -1126,8 +1354,14 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35827</v>
       </c>
@@ -1146,8 +1380,14 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>35855</v>
       </c>
@@ -1166,8 +1406,14 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35886</v>
       </c>
@@ -1186,8 +1432,14 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35916</v>
       </c>
@@ -1206,8 +1458,14 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>35947</v>
       </c>
@@ -1226,8 +1484,14 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>35977</v>
       </c>
@@ -1246,8 +1510,14 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>36008</v>
       </c>
@@ -1266,8 +1536,14 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>36039</v>
       </c>
@@ -1286,8 +1562,14 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>36069</v>
       </c>
@@ -1306,8 +1588,14 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>36100</v>
       </c>
@@ -1326,8 +1614,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>36130</v>
       </c>
@@ -1346,8 +1640,14 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>36161</v>
       </c>
@@ -1366,8 +1666,14 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>36192</v>
       </c>
@@ -1386,8 +1692,14 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36220</v>
       </c>
@@ -1406,8 +1718,14 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>36251</v>
       </c>
@@ -1426,8 +1744,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>36281</v>
       </c>
@@ -1446,8 +1770,14 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>36312</v>
       </c>
@@ -1466,8 +1796,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>36342</v>
       </c>
@@ -1486,8 +1822,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>36373</v>
       </c>
@@ -1506,8 +1848,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>36404</v>
       </c>
@@ -1526,8 +1874,14 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36434</v>
       </c>
@@ -1546,8 +1900,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>36465</v>
       </c>
@@ -1566,8 +1926,14 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>36495</v>
       </c>
@@ -1586,8 +1952,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>36526</v>
       </c>
@@ -1606,8 +1978,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>36557</v>
       </c>
@@ -1626,8 +2004,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36586</v>
       </c>
@@ -1646,8 +2030,14 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>36617</v>
       </c>
@@ -1666,8 +2056,14 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>36647</v>
       </c>
@@ -1686,8 +2082,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>36678</v>
       </c>
@@ -1706,8 +2108,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>36708</v>
       </c>
@@ -1726,8 +2134,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36739</v>
       </c>
@@ -1746,8 +2160,14 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>36770</v>
       </c>
@@ -1766,8 +2186,14 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>36800</v>
       </c>
@@ -1786,8 +2212,14 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>36831</v>
       </c>
@@ -1806,8 +2238,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>36861</v>
       </c>
@@ -1826,8 +2264,14 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>36892</v>
       </c>
@@ -1846,8 +2290,14 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>36923</v>
       </c>
@@ -1866,8 +2316,14 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>36951</v>
       </c>
@@ -1886,8 +2342,14 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>36982</v>
       </c>
@@ -1906,8 +2368,14 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>37012</v>
       </c>
@@ -1926,8 +2394,14 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>37043</v>
       </c>
@@ -1946,8 +2420,14 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>37073</v>
       </c>
@@ -1966,8 +2446,14 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>37104</v>
       </c>
@@ -1986,8 +2472,14 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>37135</v>
       </c>
@@ -2006,8 +2498,14 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>37165</v>
       </c>
@@ -2026,8 +2524,14 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>37196</v>
       </c>
@@ -2046,8 +2550,14 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37226</v>
       </c>
@@ -2066,8 +2576,14 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>37257</v>
       </c>
@@ -2086,8 +2602,14 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>37288</v>
       </c>
@@ -2106,8 +2628,14 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>37316</v>
       </c>
@@ -2126,8 +2654,14 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>37347</v>
       </c>
@@ -2146,8 +2680,14 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>37377</v>
       </c>
@@ -2166,8 +2706,14 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>37408</v>
       </c>
@@ -2186,8 +2732,14 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>37438</v>
       </c>
@@ -2206,8 +2758,14 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>37469</v>
       </c>
@@ -2226,8 +2784,14 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>37500</v>
       </c>
@@ -2246,8 +2810,14 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>37530</v>
       </c>
@@ -2266,8 +2836,14 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37561</v>
       </c>
@@ -2286,8 +2862,14 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>37591</v>
       </c>
@@ -2306,8 +2888,14 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>37622</v>
       </c>
@@ -2326,8 +2914,14 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>37653</v>
       </c>
@@ -2346,8 +2940,14 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>37681</v>
       </c>
@@ -2366,8 +2966,14 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>37712</v>
       </c>
@@ -2386,8 +2992,14 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>37742</v>
       </c>
@@ -2406,8 +3018,14 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>37773</v>
       </c>
@@ -2426,8 +3044,14 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>37803</v>
       </c>
@@ -2446,8 +3070,14 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>37834</v>
       </c>
@@ -2466,8 +3096,14 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>37865</v>
       </c>
@@ -2486,8 +3122,14 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>37895</v>
       </c>
@@ -2506,8 +3148,14 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>37926</v>
       </c>
@@ -2526,8 +3174,14 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>37956</v>
       </c>
@@ -2546,8 +3200,14 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>37987</v>
       </c>
@@ -2566,8 +3226,14 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>38018</v>
       </c>
@@ -2586,8 +3252,14 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>38047</v>
       </c>
@@ -2606,8 +3278,14 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>38078</v>
       </c>
@@ -2626,8 +3304,14 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>38108</v>
       </c>
@@ -2646,8 +3330,14 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>38139</v>
       </c>
@@ -2666,8 +3356,14 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>38169</v>
       </c>
@@ -2686,8 +3382,14 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>38200</v>
       </c>
@@ -2706,8 +3408,14 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>38231</v>
       </c>
@@ -2726,8 +3434,14 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>38261</v>
       </c>
@@ -2746,8 +3460,14 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>38292</v>
       </c>
@@ -2766,8 +3486,14 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>38322</v>
       </c>
@@ -2786,8 +3512,14 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>38353</v>
       </c>
@@ -2806,8 +3538,14 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>38384</v>
       </c>
@@ -2826,8 +3564,14 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>38412</v>
       </c>
@@ -2846,8 +3590,14 @@
       <c r="F124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>38443</v>
       </c>
@@ -2866,8 +3616,14 @@
       <c r="F125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>38473</v>
       </c>
@@ -2886,8 +3642,14 @@
       <c r="F126">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38504</v>
       </c>
@@ -2906,8 +3668,14 @@
       <c r="F127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>38534</v>
       </c>
@@ -2926,8 +3694,14 @@
       <c r="F128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38565</v>
       </c>
@@ -2946,8 +3720,14 @@
       <c r="F129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>38596</v>
       </c>
@@ -2966,8 +3746,14 @@
       <c r="F130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>38626</v>
       </c>
@@ -2986,8 +3772,14 @@
       <c r="F131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>38657</v>
       </c>
@@ -3006,8 +3798,14 @@
       <c r="F132">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>38687</v>
       </c>
@@ -3026,8 +3824,14 @@
       <c r="F133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>38718</v>
       </c>
@@ -3046,8 +3850,14 @@
       <c r="F134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>38749</v>
       </c>
@@ -3066,8 +3876,14 @@
       <c r="F135">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>38777</v>
       </c>
@@ -3086,8 +3902,14 @@
       <c r="F136">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>38808</v>
       </c>
@@ -3106,8 +3928,14 @@
       <c r="F137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>38838</v>
       </c>
@@ -3126,8 +3954,14 @@
       <c r="F138">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>38869</v>
       </c>
@@ -3146,8 +3980,14 @@
       <c r="F139">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>38899</v>
       </c>
@@ -3166,8 +4006,14 @@
       <c r="F140">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>38930</v>
       </c>
@@ -3186,8 +4032,14 @@
       <c r="F141">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>38961</v>
       </c>
@@ -3206,8 +4058,14 @@
       <c r="F142">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>38991</v>
       </c>
@@ -3226,8 +4084,14 @@
       <c r="F143">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>39022</v>
       </c>
@@ -3246,8 +4110,14 @@
       <c r="F144">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>39052</v>
       </c>
@@ -3266,8 +4136,14 @@
       <c r="F145">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>39083</v>
       </c>
@@ -3286,8 +4162,14 @@
       <c r="F146">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>39114</v>
       </c>
@@ -3306,8 +4188,14 @@
       <c r="F147">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>39142</v>
       </c>
@@ -3326,8 +4214,14 @@
       <c r="F148">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>39173</v>
       </c>
@@ -3346,8 +4240,14 @@
       <c r="F149">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>39203</v>
       </c>
@@ -3366,8 +4266,14 @@
       <c r="F150">
         <v>27</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>39234</v>
       </c>
@@ -3386,8 +4292,14 @@
       <c r="F151">
         <v>28</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>39264</v>
       </c>
@@ -3406,8 +4318,14 @@
       <c r="F152">
         <v>29</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>39295</v>
       </c>
@@ -3426,8 +4344,14 @@
       <c r="F153">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>39326</v>
       </c>
@@ -3446,8 +4370,14 @@
       <c r="F154">
         <v>31</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>39356</v>
       </c>
@@ -3466,8 +4396,14 @@
       <c r="F155">
         <v>32</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>39387</v>
       </c>
@@ -3486,8 +4422,14 @@
       <c r="F156">
         <v>33</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39417</v>
       </c>
@@ -3506,8 +4448,14 @@
       <c r="F157">
         <v>34</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39448</v>
       </c>
@@ -3526,8 +4474,14 @@
       <c r="F158">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>39479</v>
       </c>
@@ -3546,8 +4500,14 @@
       <c r="F159">
         <v>36</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>39508</v>
       </c>
@@ -3566,8 +4526,14 @@
       <c r="F160">
         <v>37</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>39539</v>
       </c>
@@ -3586,8 +4552,14 @@
       <c r="F161">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>39569</v>
       </c>
@@ -3606,8 +4578,14 @@
       <c r="F162">
         <v>39</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>39600</v>
       </c>
@@ -3626,8 +4604,14 @@
       <c r="F163">
         <v>40</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>39630</v>
       </c>
@@ -3646,8 +4630,14 @@
       <c r="F164">
         <v>41</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>39661</v>
       </c>
@@ -3666,8 +4656,14 @@
       <c r="F165">
         <v>42</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>39692</v>
       </c>
@@ -3686,8 +4682,14 @@
       <c r="F166">
         <v>43</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>39722</v>
       </c>
@@ -3706,8 +4708,14 @@
       <c r="F167">
         <v>44</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>39753</v>
       </c>
@@ -3726,8 +4734,14 @@
       <c r="F168">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>39783</v>
       </c>
@@ -3746,8 +4760,14 @@
       <c r="F169">
         <v>46</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>39814</v>
       </c>
@@ -3766,8 +4786,14 @@
       <c r="F170">
         <v>47</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>39845</v>
       </c>
@@ -3786,8 +4812,14 @@
       <c r="F171">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>39873</v>
       </c>
@@ -3806,8 +4838,14 @@
       <c r="F172">
         <v>49</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>39904</v>
       </c>
@@ -3826,8 +4864,14 @@
       <c r="F173">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>39934</v>
       </c>
@@ -3846,8 +4890,14 @@
       <c r="F174">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>39965</v>
       </c>
@@ -3866,8 +4916,14 @@
       <c r="F175">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>39995</v>
       </c>
@@ -3886,8 +4942,14 @@
       <c r="F176">
         <v>53</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>40026</v>
       </c>
@@ -3906,8 +4968,14 @@
       <c r="F177">
         <v>54</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>40057</v>
       </c>
@@ -3926,8 +4994,14 @@
       <c r="F178">
         <v>55</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>40087</v>
       </c>
@@ -3946,8 +5020,14 @@
       <c r="F179">
         <v>56</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>40118</v>
       </c>
@@ -3966,8 +5046,14 @@
       <c r="F180">
         <v>57</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>40148</v>
       </c>
@@ -3986,8 +5072,14 @@
       <c r="F181">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>40179</v>
       </c>
@@ -4006,8 +5098,14 @@
       <c r="F182">
         <v>59</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>40210</v>
       </c>
@@ -4026,8 +5124,14 @@
       <c r="F183">
         <v>60</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>40238</v>
       </c>
@@ -4046,8 +5150,14 @@
       <c r="F184">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>40269</v>
       </c>
@@ -4066,8 +5176,14 @@
       <c r="F185">
         <v>62</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>40299</v>
       </c>
@@ -4086,8 +5202,14 @@
       <c r="F186">
         <v>63</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>40330</v>
       </c>
@@ -4106,8 +5228,14 @@
       <c r="F187">
         <v>64</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>40360</v>
       </c>
@@ -4126,8 +5254,14 @@
       <c r="F188">
         <v>65</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>40391</v>
       </c>
@@ -4146,8 +5280,14 @@
       <c r="F189">
         <v>66</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>40422</v>
       </c>
@@ -4166,8 +5306,14 @@
       <c r="F190">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>40452</v>
       </c>
@@ -4186,8 +5332,14 @@
       <c r="F191">
         <v>68</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>40483</v>
       </c>
@@ -4206,8 +5358,14 @@
       <c r="F192">
         <v>69</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>40513</v>
       </c>
@@ -4226,8 +5384,14 @@
       <c r="F193">
         <v>70</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>40544</v>
       </c>
@@ -4246,8 +5410,14 @@
       <c r="F194">
         <v>71</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>40575</v>
       </c>
@@ -4266,8 +5436,14 @@
       <c r="F195">
         <v>72</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>40603</v>
       </c>
@@ -4286,8 +5462,14 @@
       <c r="F196">
         <v>73</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>40634</v>
       </c>
@@ -4306,8 +5488,14 @@
       <c r="F197">
         <v>74</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>40664</v>
       </c>
@@ -4326,8 +5514,14 @@
       <c r="F198">
         <v>75</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>40695</v>
       </c>
@@ -4346,8 +5540,14 @@
       <c r="F199">
         <v>76</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>40725</v>
       </c>
@@ -4366,8 +5566,14 @@
       <c r="F200">
         <v>77</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>40756</v>
       </c>
@@ -4386,8 +5592,14 @@
       <c r="F201">
         <v>78</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40787</v>
       </c>
@@ -4406,8 +5618,14 @@
       <c r="F202">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40817</v>
       </c>
@@ -4426,8 +5644,14 @@
       <c r="F203">
         <v>80</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40848</v>
       </c>
@@ -4446,8 +5670,14 @@
       <c r="F204">
         <v>81</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40878</v>
       </c>
@@ -4466,8 +5696,14 @@
       <c r="F205">
         <v>82</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40909</v>
       </c>
@@ -4486,8 +5722,14 @@
       <c r="F206">
         <v>83</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40940</v>
       </c>
@@ -4506,8 +5748,14 @@
       <c r="F207">
         <v>84</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40969</v>
       </c>
@@ -4526,8 +5774,14 @@
       <c r="F208">
         <v>85</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>41000</v>
       </c>
@@ -4546,8 +5800,14 @@
       <c r="F209">
         <v>86</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>41030</v>
       </c>
@@ -4566,8 +5826,14 @@
       <c r="F210">
         <v>87</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>41061</v>
       </c>
@@ -4586,8 +5852,14 @@
       <c r="F211">
         <v>88</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>41091</v>
       </c>
@@ -4606,8 +5878,14 @@
       <c r="F212">
         <v>89</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>41122</v>
       </c>
@@ -4626,8 +5904,14 @@
       <c r="F213">
         <v>90</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41153</v>
       </c>
@@ -4646,8 +5930,14 @@
       <c r="F214">
         <v>91</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>41183</v>
       </c>
@@ -4666,8 +5956,14 @@
       <c r="F215">
         <v>92</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>41214</v>
       </c>
@@ -4686,8 +5982,14 @@
       <c r="F216">
         <v>93</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>41244</v>
       </c>
@@ -4706,8 +6008,14 @@
       <c r="F217">
         <v>94</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41275</v>
       </c>
@@ -4726,8 +6034,14 @@
       <c r="F218">
         <v>95</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>41306</v>
       </c>
@@ -4746,8 +6060,14 @@
       <c r="F219">
         <v>96</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>41334</v>
       </c>
@@ -4766,8 +6086,14 @@
       <c r="F220">
         <v>97</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>41365</v>
       </c>
@@ -4786,8 +6112,14 @@
       <c r="F221">
         <v>98</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>41395</v>
       </c>
@@ -4806,8 +6138,14 @@
       <c r="F222">
         <v>99</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>41426</v>
       </c>
@@ -4826,8 +6164,14 @@
       <c r="F223">
         <v>100</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>41456</v>
       </c>
@@ -4846,8 +6190,14 @@
       <c r="F224">
         <v>101</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>41487</v>
       </c>
@@ -4866,8 +6216,14 @@
       <c r="F225">
         <v>102</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>41518</v>
       </c>
@@ -4886,8 +6242,14 @@
       <c r="F226">
         <v>103</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>41548</v>
       </c>
@@ -4906,8 +6268,14 @@
       <c r="F227">
         <v>104</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>41579</v>
       </c>
@@ -4926,8 +6294,14 @@
       <c r="F228">
         <v>105</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>41609</v>
       </c>
@@ -4946,8 +6320,14 @@
       <c r="F229">
         <v>106</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>41640</v>
       </c>
@@ -4966,8 +6346,14 @@
       <c r="F230">
         <v>107</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>41671</v>
       </c>
@@ -4986,8 +6372,14 @@
       <c r="F231">
         <v>108</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>41699</v>
       </c>
@@ -5006,8 +6398,14 @@
       <c r="F232">
         <v>109</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>41730</v>
       </c>
@@ -5026,8 +6424,14 @@
       <c r="F233">
         <v>110</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>41760</v>
       </c>
@@ -5046,8 +6450,14 @@
       <c r="F234">
         <v>111</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>41791</v>
       </c>
@@ -5066,8 +6476,14 @@
       <c r="F235">
         <v>112</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>41821</v>
       </c>
@@ -5086,8 +6502,14 @@
       <c r="F236">
         <v>113</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>41852</v>
       </c>
@@ -5106,8 +6528,14 @@
       <c r="F237">
         <v>114</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>41883</v>
       </c>
@@ -5126,8 +6554,14 @@
       <c r="F238">
         <v>115</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>41913</v>
       </c>
@@ -5146,8 +6580,14 @@
       <c r="F239">
         <v>116</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>41944</v>
       </c>
@@ -5166,8 +6606,14 @@
       <c r="F240">
         <v>117</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>41974</v>
       </c>
@@ -5186,8 +6632,14 @@
       <c r="F241">
         <v>118</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42005</v>
       </c>
@@ -5206,8 +6658,14 @@
       <c r="F242">
         <v>119</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42036</v>
       </c>
@@ -5226,8 +6684,14 @@
       <c r="F243">
         <v>120</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42064</v>
       </c>
@@ -5246,8 +6710,14 @@
       <c r="F244">
         <v>121</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42095</v>
       </c>
@@ -5266,8 +6736,14 @@
       <c r="F245">
         <v>122</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42125</v>
       </c>
@@ -5286,8 +6762,14 @@
       <c r="F246">
         <v>123</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42156</v>
       </c>
@@ -5306,8 +6788,14 @@
       <c r="F247">
         <v>124</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42186</v>
       </c>
@@ -5326,8 +6814,14 @@
       <c r="F248">
         <v>125</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42217</v>
       </c>
@@ -5346,8 +6840,14 @@
       <c r="F249">
         <v>126</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42248</v>
       </c>
@@ -5366,8 +6866,14 @@
       <c r="F250">
         <v>127</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42278</v>
       </c>
@@ -5386,8 +6892,14 @@
       <c r="F251">
         <v>128</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42309</v>
       </c>
@@ -5406,8 +6918,14 @@
       <c r="F252">
         <v>129</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42339</v>
       </c>
@@ -5426,8 +6944,14 @@
       <c r="F253">
         <v>130</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42370</v>
       </c>
@@ -5446,8 +6970,14 @@
       <c r="F254">
         <v>131</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42401</v>
       </c>
@@ -5466,8 +6996,14 @@
       <c r="F255">
         <v>132</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42430</v>
       </c>
@@ -5486,8 +7022,14 @@
       <c r="F256">
         <v>133</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42461</v>
       </c>
@@ -5506,8 +7048,14 @@
       <c r="F257">
         <v>134</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42491</v>
       </c>
@@ -5526,8 +7074,14 @@
       <c r="F258">
         <v>135</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42522</v>
       </c>
@@ -5546,8 +7100,14 @@
       <c r="F259">
         <v>136</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42552</v>
       </c>
@@ -5566,8 +7126,14 @@
       <c r="F260">
         <v>137</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42583</v>
       </c>
@@ -5586,8 +7152,14 @@
       <c r="F261">
         <v>138</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42614</v>
       </c>
@@ -5606,8 +7178,14 @@
       <c r="F262">
         <v>139</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42644</v>
       </c>
@@ -5626,8 +7204,14 @@
       <c r="F263">
         <v>140</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42675</v>
       </c>
@@ -5646,8 +7230,14 @@
       <c r="F264">
         <v>141</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>42705</v>
       </c>
@@ -5666,8 +7256,14 @@
       <c r="F265">
         <v>142</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>42736</v>
       </c>
@@ -5686,8 +7282,14 @@
       <c r="F266">
         <v>143</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>42767</v>
       </c>
@@ -5706,8 +7308,14 @@
       <c r="F267">
         <v>144</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>42795</v>
       </c>
@@ -5726,8 +7334,14 @@
       <c r="F268">
         <v>145</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>42826</v>
       </c>
@@ -5746,8 +7360,14 @@
       <c r="F269">
         <v>146</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>42856</v>
       </c>
@@ -5766,8 +7386,14 @@
       <c r="F270">
         <v>147</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>42887</v>
       </c>
@@ -5786,8 +7412,14 @@
       <c r="F271">
         <v>148</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>42917</v>
       </c>
@@ -5806,8 +7438,14 @@
       <c r="F272">
         <v>149</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>42948</v>
       </c>
@@ -5826,8 +7464,14 @@
       <c r="F273">
         <v>150</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>42979</v>
       </c>
@@ -5846,8 +7490,14 @@
       <c r="F274">
         <v>151</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>43009</v>
       </c>
@@ -5866,8 +7516,14 @@
       <c r="F275">
         <v>152</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>43040</v>
       </c>
@@ -5886,8 +7542,14 @@
       <c r="F276">
         <v>153</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43070</v>
       </c>
@@ -5906,8 +7568,14 @@
       <c r="F277">
         <v>154</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43101</v>
       </c>
@@ -5926,8 +7594,14 @@
       <c r="F278">
         <v>155</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43132</v>
       </c>
@@ -5946,8 +7620,14 @@
       <c r="F279">
         <v>156</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43160</v>
       </c>
@@ -5966,8 +7646,14 @@
       <c r="F280">
         <v>157</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43191</v>
       </c>
@@ -5986,8 +7672,14 @@
       <c r="F281">
         <v>158</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43221</v>
       </c>
@@ -6006,8 +7698,14 @@
       <c r="F282">
         <v>159</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43252</v>
       </c>
@@ -6026,8 +7724,14 @@
       <c r="F283">
         <v>160</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43282</v>
       </c>
@@ -6046,8 +7750,14 @@
       <c r="F284">
         <v>161</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43313</v>
       </c>
@@ -6066,8 +7776,14 @@
       <c r="F285">
         <v>162</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43344</v>
       </c>
@@ -6086,8 +7802,14 @@
       <c r="F286">
         <v>163</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43374</v>
       </c>
@@ -6106,8 +7828,14 @@
       <c r="F287">
         <v>164</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43405</v>
       </c>
@@ -6126,8 +7854,14 @@
       <c r="F288">
         <v>165</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>43435</v>
       </c>
@@ -6146,8 +7880,14 @@
       <c r="F289">
         <v>166</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>43466</v>
       </c>
@@ -6166,8 +7906,14 @@
       <c r="F290">
         <v>167</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>43497</v>
       </c>
@@ -6186,8 +7932,14 @@
       <c r="F291">
         <v>168</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>43525</v>
       </c>
@@ -6206,8 +7958,14 @@
       <c r="F292">
         <v>169</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>43556</v>
       </c>
@@ -6226,8 +7984,14 @@
       <c r="F293">
         <v>170</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>43586</v>
       </c>
@@ -6246,8 +8010,14 @@
       <c r="F294">
         <v>171</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>43617</v>
       </c>
@@ -6266,8 +8036,14 @@
       <c r="F295">
         <v>172</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>43647</v>
       </c>
@@ -6286,8 +8062,14 @@
       <c r="F296">
         <v>173</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>43678</v>
       </c>
@@ -6306,8 +8088,14 @@
       <c r="F297">
         <v>174</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>43709</v>
       </c>
@@ -6326,8 +8114,14 @@
       <c r="F298">
         <v>175</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>43739</v>
       </c>
@@ -6346,8 +8140,14 @@
       <c r="F299">
         <v>176</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>43770</v>
       </c>
@@ -6366,8 +8166,14 @@
       <c r="F300">
         <v>177</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>43800</v>
       </c>
@@ -6386,14 +8192,20 @@
       <c r="F301">
         <v>178</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
   </sheetData>

--- a/денежная_масса.xlsx
+++ b/денежная_масса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Дата</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>ds1</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
   </si>
 </sst>
 </file>
@@ -355,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +373,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +392,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>34700</v>
       </c>
@@ -406,8 +418,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>34731</v>
       </c>
@@ -426,8 +444,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>34759</v>
       </c>
@@ -446,8 +470,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>34790</v>
       </c>
@@ -466,8 +496,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>34820</v>
       </c>
@@ -486,8 +522,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34851</v>
       </c>
@@ -506,8 +548,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>34881</v>
       </c>
@@ -526,8 +574,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34912</v>
       </c>
@@ -546,8 +600,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34943</v>
       </c>
@@ -566,8 +626,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>34973</v>
       </c>
@@ -586,8 +652,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>35004</v>
       </c>
@@ -606,8 +678,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35034</v>
       </c>
@@ -626,8 +704,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35065</v>
       </c>
@@ -646,8 +730,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35096</v>
       </c>
@@ -666,8 +756,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35125</v>
       </c>
@@ -686,8 +782,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35156</v>
       </c>
@@ -706,8 +808,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35186</v>
       </c>
@@ -726,8 +834,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35217</v>
       </c>
@@ -746,8 +860,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35247</v>
       </c>
@@ -766,8 +886,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35278</v>
       </c>
@@ -786,8 +912,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35309</v>
       </c>
@@ -806,8 +938,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35339</v>
       </c>
@@ -826,8 +964,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35370</v>
       </c>
@@ -846,8 +990,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35400</v>
       </c>
@@ -866,8 +1016,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35431</v>
       </c>
@@ -886,8 +1042,14 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>35462</v>
       </c>
@@ -906,8 +1068,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35490</v>
       </c>
@@ -926,8 +1094,14 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35521</v>
       </c>
@@ -946,8 +1120,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35551</v>
       </c>
@@ -966,8 +1146,14 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35582</v>
       </c>
@@ -986,8 +1172,14 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35612</v>
       </c>
@@ -1006,8 +1198,14 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35643</v>
       </c>
@@ -1026,8 +1224,14 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35674</v>
       </c>
@@ -1046,8 +1250,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35704</v>
       </c>
@@ -1066,8 +1276,14 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35735</v>
       </c>
@@ -1086,8 +1302,14 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35765</v>
       </c>
@@ -1106,8 +1328,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35796</v>
       </c>
@@ -1126,8 +1354,14 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35827</v>
       </c>
@@ -1146,8 +1380,14 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>35855</v>
       </c>
@@ -1166,8 +1406,14 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35886</v>
       </c>
@@ -1186,8 +1432,14 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35916</v>
       </c>
@@ -1206,8 +1458,14 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>35947</v>
       </c>
@@ -1226,8 +1484,14 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>35977</v>
       </c>
@@ -1246,8 +1510,14 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>36008</v>
       </c>
@@ -1266,8 +1536,14 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>36039</v>
       </c>
@@ -1286,8 +1562,14 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>36069</v>
       </c>
@@ -1306,8 +1588,14 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>36100</v>
       </c>
@@ -1326,8 +1614,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>36130</v>
       </c>
@@ -1346,8 +1640,14 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>36161</v>
       </c>
@@ -1366,8 +1666,14 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>36192</v>
       </c>
@@ -1386,8 +1692,14 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36220</v>
       </c>
@@ -1406,8 +1718,14 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>36251</v>
       </c>
@@ -1426,8 +1744,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>36281</v>
       </c>
@@ -1446,8 +1770,14 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>36312</v>
       </c>
@@ -1466,8 +1796,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>36342</v>
       </c>
@@ -1486,8 +1822,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>36373</v>
       </c>
@@ -1506,8 +1848,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>36404</v>
       </c>
@@ -1526,8 +1874,14 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36434</v>
       </c>
@@ -1546,8 +1900,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>36465</v>
       </c>
@@ -1566,8 +1926,14 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>36495</v>
       </c>
@@ -1586,8 +1952,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>36526</v>
       </c>
@@ -1606,8 +1978,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>36557</v>
       </c>
@@ -1626,8 +2004,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36586</v>
       </c>
@@ -1646,8 +2030,14 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>36617</v>
       </c>
@@ -1666,8 +2056,14 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>36647</v>
       </c>
@@ -1686,8 +2082,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>36678</v>
       </c>
@@ -1706,8 +2108,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>36708</v>
       </c>
@@ -1726,8 +2134,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36739</v>
       </c>
@@ -1746,8 +2160,14 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>36770</v>
       </c>
@@ -1766,8 +2186,14 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>36800</v>
       </c>
@@ -1786,8 +2212,14 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>36831</v>
       </c>
@@ -1806,8 +2238,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>36861</v>
       </c>
@@ -1826,8 +2264,14 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>36892</v>
       </c>
@@ -1846,8 +2290,14 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>36923</v>
       </c>
@@ -1866,8 +2316,14 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>36951</v>
       </c>
@@ -1886,8 +2342,14 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>36982</v>
       </c>
@@ -1906,8 +2368,14 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>37012</v>
       </c>
@@ -1926,8 +2394,14 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>37043</v>
       </c>
@@ -1946,8 +2420,14 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>37073</v>
       </c>
@@ -1966,8 +2446,14 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>37104</v>
       </c>
@@ -1986,8 +2472,14 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>37135</v>
       </c>
@@ -2006,8 +2498,14 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>37165</v>
       </c>
@@ -2026,8 +2524,14 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>37196</v>
       </c>
@@ -2046,8 +2550,14 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37226</v>
       </c>
@@ -2066,8 +2576,14 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>37257</v>
       </c>
@@ -2086,8 +2602,14 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>37288</v>
       </c>
@@ -2106,8 +2628,14 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>37316</v>
       </c>
@@ -2126,8 +2654,14 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>37347</v>
       </c>
@@ -2146,8 +2680,14 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>37377</v>
       </c>
@@ -2166,8 +2706,14 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>37408</v>
       </c>
@@ -2186,8 +2732,14 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>37438</v>
       </c>
@@ -2206,8 +2758,14 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>37469</v>
       </c>
@@ -2226,8 +2784,14 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>37500</v>
       </c>
@@ -2246,8 +2810,14 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>37530</v>
       </c>
@@ -2266,8 +2836,14 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37561</v>
       </c>
@@ -2286,8 +2862,14 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>37591</v>
       </c>
@@ -2306,8 +2888,14 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>37622</v>
       </c>
@@ -2326,8 +2914,14 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>37653</v>
       </c>
@@ -2346,8 +2940,14 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>37681</v>
       </c>
@@ -2366,8 +2966,14 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>37712</v>
       </c>
@@ -2386,8 +2992,14 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>37742</v>
       </c>
@@ -2406,8 +3018,14 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>37773</v>
       </c>
@@ -2426,8 +3044,14 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>37803</v>
       </c>
@@ -2446,8 +3070,14 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>37834</v>
       </c>
@@ -2466,8 +3096,14 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>37865</v>
       </c>
@@ -2486,8 +3122,14 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>37895</v>
       </c>
@@ -2506,8 +3148,14 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>37926</v>
       </c>
@@ -2526,8 +3174,14 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>37956</v>
       </c>
@@ -2546,8 +3200,14 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>37987</v>
       </c>
@@ -2566,8 +3226,14 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>38018</v>
       </c>
@@ -2586,8 +3252,14 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>38047</v>
       </c>
@@ -2606,8 +3278,14 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>38078</v>
       </c>
@@ -2626,8 +3304,14 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>38108</v>
       </c>
@@ -2646,8 +3330,14 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>38139</v>
       </c>
@@ -2666,8 +3356,14 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>38169</v>
       </c>
@@ -2686,8 +3382,14 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>38200</v>
       </c>
@@ -2706,8 +3408,14 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>38231</v>
       </c>
@@ -2726,8 +3434,14 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>38261</v>
       </c>
@@ -2746,8 +3460,14 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>38292</v>
       </c>
@@ -2766,8 +3486,14 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>38322</v>
       </c>
@@ -2786,8 +3512,14 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>38353</v>
       </c>
@@ -2806,8 +3538,14 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>38384</v>
       </c>
@@ -2826,8 +3564,14 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>38412</v>
       </c>
@@ -2846,8 +3590,14 @@
       <c r="F124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>38443</v>
       </c>
@@ -2866,8 +3616,14 @@
       <c r="F125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>38473</v>
       </c>
@@ -2886,8 +3642,14 @@
       <c r="F126">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38504</v>
       </c>
@@ -2906,8 +3668,14 @@
       <c r="F127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>38534</v>
       </c>
@@ -2926,8 +3694,14 @@
       <c r="F128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38565</v>
       </c>
@@ -2946,8 +3720,14 @@
       <c r="F129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>38596</v>
       </c>
@@ -2966,8 +3746,14 @@
       <c r="F130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>38626</v>
       </c>
@@ -2986,8 +3772,14 @@
       <c r="F131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>38657</v>
       </c>
@@ -3006,8 +3798,14 @@
       <c r="F132">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>38687</v>
       </c>
@@ -3026,8 +3824,14 @@
       <c r="F133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>38718</v>
       </c>
@@ -3046,8 +3850,14 @@
       <c r="F134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>38749</v>
       </c>
@@ -3066,8 +3876,14 @@
       <c r="F135">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>38777</v>
       </c>
@@ -3086,8 +3902,14 @@
       <c r="F136">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>38808</v>
       </c>
@@ -3106,8 +3928,14 @@
       <c r="F137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>38838</v>
       </c>
@@ -3126,8 +3954,14 @@
       <c r="F138">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>38869</v>
       </c>
@@ -3146,8 +3980,14 @@
       <c r="F139">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>38899</v>
       </c>
@@ -3166,8 +4006,14 @@
       <c r="F140">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>38930</v>
       </c>
@@ -3186,8 +4032,14 @@
       <c r="F141">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>38961</v>
       </c>
@@ -3206,8 +4058,14 @@
       <c r="F142">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>38991</v>
       </c>
@@ -3226,8 +4084,14 @@
       <c r="F143">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>39022</v>
       </c>
@@ -3246,8 +4110,14 @@
       <c r="F144">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>39052</v>
       </c>
@@ -3266,8 +4136,14 @@
       <c r="F145">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>39083</v>
       </c>
@@ -3286,8 +4162,14 @@
       <c r="F146">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>39114</v>
       </c>
@@ -3306,8 +4188,14 @@
       <c r="F147">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>39142</v>
       </c>
@@ -3326,8 +4214,14 @@
       <c r="F148">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>39173</v>
       </c>
@@ -3346,8 +4240,14 @@
       <c r="F149">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>39203</v>
       </c>
@@ -3366,8 +4266,14 @@
       <c r="F150">
         <v>27</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>39234</v>
       </c>
@@ -3386,8 +4292,14 @@
       <c r="F151">
         <v>28</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>39264</v>
       </c>
@@ -3406,8 +4318,14 @@
       <c r="F152">
         <v>29</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>39295</v>
       </c>
@@ -3426,8 +4344,14 @@
       <c r="F153">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>39326</v>
       </c>
@@ -3446,8 +4370,14 @@
       <c r="F154">
         <v>31</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>39356</v>
       </c>
@@ -3466,8 +4396,14 @@
       <c r="F155">
         <v>32</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>39387</v>
       </c>
@@ -3486,8 +4422,14 @@
       <c r="F156">
         <v>33</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39417</v>
       </c>
@@ -3506,8 +4448,14 @@
       <c r="F157">
         <v>34</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39448</v>
       </c>
@@ -3526,8 +4474,14 @@
       <c r="F158">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>39479</v>
       </c>
@@ -3546,8 +4500,14 @@
       <c r="F159">
         <v>36</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>39508</v>
       </c>
@@ -3566,8 +4526,14 @@
       <c r="F160">
         <v>37</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>39539</v>
       </c>
@@ -3586,8 +4552,14 @@
       <c r="F161">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>39569</v>
       </c>
@@ -3606,8 +4578,14 @@
       <c r="F162">
         <v>39</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>39600</v>
       </c>
@@ -3626,8 +4604,14 @@
       <c r="F163">
         <v>40</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>39630</v>
       </c>
@@ -3646,8 +4630,14 @@
       <c r="F164">
         <v>41</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>39661</v>
       </c>
@@ -3666,8 +4656,14 @@
       <c r="F165">
         <v>42</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>39692</v>
       </c>
@@ -3686,8 +4682,14 @@
       <c r="F166">
         <v>43</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>39722</v>
       </c>
@@ -3706,8 +4708,14 @@
       <c r="F167">
         <v>44</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>39753</v>
       </c>
@@ -3726,8 +4734,14 @@
       <c r="F168">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>39783</v>
       </c>
@@ -3746,8 +4760,14 @@
       <c r="F169">
         <v>46</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>39814</v>
       </c>
@@ -3766,8 +4786,14 @@
       <c r="F170">
         <v>47</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>39845</v>
       </c>
@@ -3786,8 +4812,14 @@
       <c r="F171">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>39873</v>
       </c>
@@ -3806,8 +4838,14 @@
       <c r="F172">
         <v>49</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>39904</v>
       </c>
@@ -3826,8 +4864,14 @@
       <c r="F173">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>39934</v>
       </c>
@@ -3846,8 +4890,14 @@
       <c r="F174">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>39965</v>
       </c>
@@ -3866,8 +4916,14 @@
       <c r="F175">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>39995</v>
       </c>
@@ -3886,8 +4942,14 @@
       <c r="F176">
         <v>53</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>40026</v>
       </c>
@@ -3906,8 +4968,14 @@
       <c r="F177">
         <v>54</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>40057</v>
       </c>
@@ -3926,8 +4994,14 @@
       <c r="F178">
         <v>55</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>40087</v>
       </c>
@@ -3946,8 +5020,14 @@
       <c r="F179">
         <v>56</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>40118</v>
       </c>
@@ -3966,8 +5046,14 @@
       <c r="F180">
         <v>57</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>40148</v>
       </c>
@@ -3986,8 +5072,14 @@
       <c r="F181">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>40179</v>
       </c>
@@ -4006,8 +5098,14 @@
       <c r="F182">
         <v>59</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>40210</v>
       </c>
@@ -4026,8 +5124,14 @@
       <c r="F183">
         <v>60</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>40238</v>
       </c>
@@ -4046,8 +5150,14 @@
       <c r="F184">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>40269</v>
       </c>
@@ -4066,8 +5176,14 @@
       <c r="F185">
         <v>62</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>40299</v>
       </c>
@@ -4086,8 +5202,14 @@
       <c r="F186">
         <v>63</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>40330</v>
       </c>
@@ -4106,8 +5228,14 @@
       <c r="F187">
         <v>64</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>40360</v>
       </c>
@@ -4126,8 +5254,14 @@
       <c r="F188">
         <v>65</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>40391</v>
       </c>
@@ -4146,8 +5280,14 @@
       <c r="F189">
         <v>66</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>40422</v>
       </c>
@@ -4166,8 +5306,14 @@
       <c r="F190">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>40452</v>
       </c>
@@ -4186,8 +5332,14 @@
       <c r="F191">
         <v>68</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>40483</v>
       </c>
@@ -4206,8 +5358,14 @@
       <c r="F192">
         <v>69</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>40513</v>
       </c>
@@ -4226,8 +5384,14 @@
       <c r="F193">
         <v>70</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>40544</v>
       </c>
@@ -4246,8 +5410,14 @@
       <c r="F194">
         <v>71</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>40575</v>
       </c>
@@ -4266,8 +5436,14 @@
       <c r="F195">
         <v>72</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>40603</v>
       </c>
@@ -4286,8 +5462,14 @@
       <c r="F196">
         <v>73</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>40634</v>
       </c>
@@ -4306,8 +5488,14 @@
       <c r="F197">
         <v>74</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>40664</v>
       </c>
@@ -4326,8 +5514,14 @@
       <c r="F198">
         <v>75</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>40695</v>
       </c>
@@ -4346,8 +5540,14 @@
       <c r="F199">
         <v>76</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>40725</v>
       </c>
@@ -4366,8 +5566,14 @@
       <c r="F200">
         <v>77</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>40756</v>
       </c>
@@ -4386,8 +5592,14 @@
       <c r="F201">
         <v>78</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40787</v>
       </c>
@@ -4406,8 +5618,14 @@
       <c r="F202">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40817</v>
       </c>
@@ -4426,8 +5644,14 @@
       <c r="F203">
         <v>80</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40848</v>
       </c>
@@ -4446,8 +5670,14 @@
       <c r="F204">
         <v>81</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40878</v>
       </c>
@@ -4466,8 +5696,14 @@
       <c r="F205">
         <v>82</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40909</v>
       </c>
@@ -4486,8 +5722,14 @@
       <c r="F206">
         <v>83</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40940</v>
       </c>
@@ -4506,8 +5748,14 @@
       <c r="F207">
         <v>84</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40969</v>
       </c>
@@ -4526,8 +5774,14 @@
       <c r="F208">
         <v>85</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>41000</v>
       </c>
@@ -4546,8 +5800,14 @@
       <c r="F209">
         <v>86</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>41030</v>
       </c>
@@ -4566,8 +5826,14 @@
       <c r="F210">
         <v>87</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>41061</v>
       </c>
@@ -4586,8 +5852,14 @@
       <c r="F211">
         <v>88</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>41091</v>
       </c>
@@ -4606,8 +5878,14 @@
       <c r="F212">
         <v>89</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>41122</v>
       </c>
@@ -4626,8 +5904,14 @@
       <c r="F213">
         <v>90</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41153</v>
       </c>
@@ -4646,8 +5930,14 @@
       <c r="F214">
         <v>91</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>41183</v>
       </c>
@@ -4666,8 +5956,14 @@
       <c r="F215">
         <v>92</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>41214</v>
       </c>
@@ -4686,8 +5982,14 @@
       <c r="F216">
         <v>93</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>41244</v>
       </c>
@@ -4706,8 +6008,14 @@
       <c r="F217">
         <v>94</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41275</v>
       </c>
@@ -4726,8 +6034,14 @@
       <c r="F218">
         <v>95</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>41306</v>
       </c>
@@ -4746,8 +6060,14 @@
       <c r="F219">
         <v>96</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>41334</v>
       </c>
@@ -4766,8 +6086,14 @@
       <c r="F220">
         <v>97</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>41365</v>
       </c>
@@ -4786,8 +6112,14 @@
       <c r="F221">
         <v>98</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>41395</v>
       </c>
@@ -4806,8 +6138,14 @@
       <c r="F222">
         <v>99</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>41426</v>
       </c>
@@ -4826,8 +6164,14 @@
       <c r="F223">
         <v>100</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>41456</v>
       </c>
@@ -4846,8 +6190,14 @@
       <c r="F224">
         <v>101</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>41487</v>
       </c>
@@ -4866,8 +6216,14 @@
       <c r="F225">
         <v>102</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>41518</v>
       </c>
@@ -4886,8 +6242,14 @@
       <c r="F226">
         <v>103</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>41548</v>
       </c>
@@ -4906,8 +6268,14 @@
       <c r="F227">
         <v>104</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>41579</v>
       </c>
@@ -4926,8 +6294,14 @@
       <c r="F228">
         <v>105</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>41609</v>
       </c>
@@ -4946,8 +6320,14 @@
       <c r="F229">
         <v>106</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>41640</v>
       </c>
@@ -4966,8 +6346,14 @@
       <c r="F230">
         <v>107</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>41671</v>
       </c>
@@ -4986,8 +6372,14 @@
       <c r="F231">
         <v>108</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>41699</v>
       </c>
@@ -5006,8 +6398,14 @@
       <c r="F232">
         <v>109</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>41730</v>
       </c>
@@ -5026,8 +6424,14 @@
       <c r="F233">
         <v>110</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>41760</v>
       </c>
@@ -5046,8 +6450,14 @@
       <c r="F234">
         <v>111</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>41791</v>
       </c>
@@ -5066,8 +6476,14 @@
       <c r="F235">
         <v>112</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>41821</v>
       </c>
@@ -5086,8 +6502,14 @@
       <c r="F236">
         <v>113</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>41852</v>
       </c>
@@ -5106,8 +6528,14 @@
       <c r="F237">
         <v>114</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>41883</v>
       </c>
@@ -5126,8 +6554,14 @@
       <c r="F238">
         <v>115</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>41913</v>
       </c>
@@ -5146,8 +6580,14 @@
       <c r="F239">
         <v>116</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>41944</v>
       </c>
@@ -5166,8 +6606,14 @@
       <c r="F240">
         <v>117</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>41974</v>
       </c>
@@ -5186,8 +6632,14 @@
       <c r="F241">
         <v>118</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42005</v>
       </c>
@@ -5206,8 +6658,14 @@
       <c r="F242">
         <v>119</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42036</v>
       </c>
@@ -5226,8 +6684,14 @@
       <c r="F243">
         <v>120</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42064</v>
       </c>
@@ -5246,8 +6710,14 @@
       <c r="F244">
         <v>121</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42095</v>
       </c>
@@ -5266,8 +6736,14 @@
       <c r="F245">
         <v>122</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42125</v>
       </c>
@@ -5286,8 +6762,14 @@
       <c r="F246">
         <v>123</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42156</v>
       </c>
@@ -5306,8 +6788,14 @@
       <c r="F247">
         <v>124</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42186</v>
       </c>
@@ -5326,8 +6814,14 @@
       <c r="F248">
         <v>125</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42217</v>
       </c>
@@ -5346,8 +6840,14 @@
       <c r="F249">
         <v>126</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42248</v>
       </c>
@@ -5366,8 +6866,14 @@
       <c r="F250">
         <v>127</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42278</v>
       </c>
@@ -5386,8 +6892,14 @@
       <c r="F251">
         <v>128</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42309</v>
       </c>
@@ -5406,8 +6918,14 @@
       <c r="F252">
         <v>129</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42339</v>
       </c>
@@ -5426,8 +6944,14 @@
       <c r="F253">
         <v>130</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42370</v>
       </c>
@@ -5446,8 +6970,14 @@
       <c r="F254">
         <v>131</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42401</v>
       </c>
@@ -5466,8 +6996,14 @@
       <c r="F255">
         <v>132</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42430</v>
       </c>
@@ -5486,8 +7022,14 @@
       <c r="F256">
         <v>133</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42461</v>
       </c>
@@ -5506,8 +7048,14 @@
       <c r="F257">
         <v>134</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42491</v>
       </c>
@@ -5526,8 +7074,14 @@
       <c r="F258">
         <v>135</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42522</v>
       </c>
@@ -5546,8 +7100,14 @@
       <c r="F259">
         <v>136</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42552</v>
       </c>
@@ -5566,8 +7126,14 @@
       <c r="F260">
         <v>137</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42583</v>
       </c>
@@ -5586,8 +7152,14 @@
       <c r="F261">
         <v>138</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42614</v>
       </c>
@@ -5606,8 +7178,14 @@
       <c r="F262">
         <v>139</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42644</v>
       </c>
@@ -5626,8 +7204,14 @@
       <c r="F263">
         <v>140</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42675</v>
       </c>
@@ -5646,8 +7230,14 @@
       <c r="F264">
         <v>141</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>42705</v>
       </c>
@@ -5666,8 +7256,14 @@
       <c r="F265">
         <v>142</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>42736</v>
       </c>
@@ -5686,8 +7282,14 @@
       <c r="F266">
         <v>143</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>42767</v>
       </c>
@@ -5706,8 +7308,14 @@
       <c r="F267">
         <v>144</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>42795</v>
       </c>
@@ -5726,8 +7334,14 @@
       <c r="F268">
         <v>145</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>42826</v>
       </c>
@@ -5746,8 +7360,14 @@
       <c r="F269">
         <v>146</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>42856</v>
       </c>
@@ -5766,8 +7386,14 @@
       <c r="F270">
         <v>147</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>42887</v>
       </c>
@@ -5786,8 +7412,14 @@
       <c r="F271">
         <v>148</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>42917</v>
       </c>
@@ -5806,8 +7438,14 @@
       <c r="F272">
         <v>149</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>42948</v>
       </c>
@@ -5826,8 +7464,14 @@
       <c r="F273">
         <v>150</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>42979</v>
       </c>
@@ -5846,8 +7490,14 @@
       <c r="F274">
         <v>151</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>43009</v>
       </c>
@@ -5866,8 +7516,14 @@
       <c r="F275">
         <v>152</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>43040</v>
       </c>
@@ -5886,8 +7542,14 @@
       <c r="F276">
         <v>153</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43070</v>
       </c>
@@ -5906,8 +7568,14 @@
       <c r="F277">
         <v>154</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43101</v>
       </c>
@@ -5926,8 +7594,14 @@
       <c r="F278">
         <v>155</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43132</v>
       </c>
@@ -5946,8 +7620,14 @@
       <c r="F279">
         <v>156</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43160</v>
       </c>
@@ -5966,8 +7646,14 @@
       <c r="F280">
         <v>157</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43191</v>
       </c>
@@ -5986,8 +7672,14 @@
       <c r="F281">
         <v>158</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43221</v>
       </c>
@@ -6006,8 +7698,14 @@
       <c r="F282">
         <v>159</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43252</v>
       </c>
@@ -6026,8 +7724,14 @@
       <c r="F283">
         <v>160</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43282</v>
       </c>
@@ -6046,8 +7750,14 @@
       <c r="F284">
         <v>161</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43313</v>
       </c>
@@ -6066,8 +7776,14 @@
       <c r="F285">
         <v>162</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43344</v>
       </c>
@@ -6086,8 +7802,14 @@
       <c r="F286">
         <v>163</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43374</v>
       </c>
@@ -6106,8 +7828,14 @@
       <c r="F287">
         <v>164</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43405</v>
       </c>
@@ -6126,8 +7854,14 @@
       <c r="F288">
         <v>165</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>43435</v>
       </c>
@@ -6146,8 +7880,14 @@
       <c r="F289">
         <v>166</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>43466</v>
       </c>
@@ -6166,8 +7906,14 @@
       <c r="F290">
         <v>167</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>43497</v>
       </c>
@@ -6186,8 +7932,14 @@
       <c r="F291">
         <v>168</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>43525</v>
       </c>
@@ -6206,8 +7958,14 @@
       <c r="F292">
         <v>169</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>43556</v>
       </c>
@@ -6226,8 +7984,14 @@
       <c r="F293">
         <v>170</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>43586</v>
       </c>
@@ -6246,8 +8010,14 @@
       <c r="F294">
         <v>171</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>43617</v>
       </c>
@@ -6266,8 +8036,14 @@
       <c r="F295">
         <v>172</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>43647</v>
       </c>
@@ -6286,8 +8062,14 @@
       <c r="F296">
         <v>173</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>43678</v>
       </c>
@@ -6306,8 +8088,14 @@
       <c r="F297">
         <v>174</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>43709</v>
       </c>
@@ -6326,8 +8114,14 @@
       <c r="F298">
         <v>175</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>43739</v>
       </c>
@@ -6346,8 +8140,14 @@
       <c r="F299">
         <v>176</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>43770</v>
       </c>
@@ -6366,8 +8166,14 @@
       <c r="F300">
         <v>177</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>43800</v>
       </c>
@@ -6386,14 +8192,20 @@
       <c r="F301">
         <v>178</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
   </sheetData>
